--- a/assets/backdata/portion_convert.xlsx
+++ b/assets/backdata/portion_convert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/nuxt/recepi-calk03/assets/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8675630E-9F69-8343-8251-9A58CCB670FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC2E1A-924B-8E42-B195-3DEFD2AB325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16440" xr2:uid="{1162B363-5C80-3E4D-8C77-8C3DD8FCD0EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>FCT_id</t>
   </si>
@@ -74,6 +74,16 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crop name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wheat flour</t>
+  </si>
+  <si>
+    <t>Carrot</t>
   </si>
 </sst>
 </file>
@@ -105,20 +115,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,11 +158,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61058-98CB-934B-9816-852A9DD97640}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -459,102 +496,123 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1043</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4156</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4156</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4156</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1043</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>180</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1043</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>300</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/backdata/portion_convert.xlsx
+++ b/assets/backdata/portion_convert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/nuxt/recepi-calk03/assets/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC2E1A-924B-8E42-B195-3DEFD2AB325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B04918A-946B-704A-931E-E5272CF92480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16440" xr2:uid="{1162B363-5C80-3E4D-8C77-8C3DD8FCD0EB}"/>
   </bookViews>
@@ -48,30 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>small</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>medium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>large</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>small cup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>medium cup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>large cup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -84,6 +60,30 @@
   </si>
   <si>
     <t>Carrot</t>
+  </si>
+  <si>
+    <t>small cup(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medium(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large(120)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medium cup(180)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large cup(100)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -488,17 +488,17 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -524,10 +524,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -541,10 +541,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -558,10 +558,10 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -575,10 +575,10 @@
         <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -592,10 +592,10 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -609,10 +609,10 @@
         <v>300</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
